--- a/biology/Médecine/1302_en_santé_et_médecine/1302_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1302_en_santé_et_médecine/1302_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1302_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1302_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1302 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1302_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1302_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Autorisé par la bulle donnée par Boniface VIII en 1300, Bartolomeo da Varignana pratique une autopsie à Bologne, « la première qui nous soit connue[1] ».
-Fondation de l'hôpital du Saint-Esprit à Uppsala en Suède[2].
-À Venise, d'après Nicolas Doglioni[3], toute prostituée qui a communiqué à quelqu'un le « vermocane[4] » est condamnée à une amende d'une lire[5].
-Fondation d'un petit hôpital à Bilina en Bohême par les chevaliers teutoniques[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Autorisé par la bulle donnée par Boniface VIII en 1300, Bartolomeo da Varignana pratique une autopsie à Bologne, « la première qui nous soit connue ».
+Fondation de l'hôpital du Saint-Esprit à Uppsala en Suède.
+À Venise, d'après Nicolas Doglioni, toute prostituée qui a communiqué à quelqu'un le « vermocane » est condamnée à une amende d'une lire.
+Fondation d'un petit hôpital à Bilina en Bohême par les chevaliers teutoniques.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1302_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1302_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Bernard Martin[7], médecin de Jacques II, roi d'Aragon.
-Fl. Guiot[7] et Henriet[7], barbiers de Jean II, duc de Bretagne.
-Fl. Jean[7] et Robinet[8], barbiers de Robert II, comte d'Artois, et Jean[7], médecin du même.
-1293-1302 : fl. Guillaume de Saint-Domnin[7], médecin de Charles II, roi de Naples, et Renaud[8], barbier de Robert d'Artois.
-1302-1342 : fl. Jean Bononiensis[7], bachelier de Montpellier, auteur d'un Tractatus de regimine sanitatis, régime de santé dédié à un roi de Hongrie, probablement Charles Ier Robert.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Bernard Martin, médecin de Jacques II, roi d'Aragon.
+Fl. Guiot et Henriet, barbiers de Jean II, duc de Bretagne.
+Fl. Jean et Robinet, barbiers de Robert II, comte d'Artois, et Jean, médecin du même.
+1293-1302 : fl. Guillaume de Saint-Domnin, médecin de Charles II, roi de Naples, et Renaud, barbier de Robert d'Artois.
+1302-1342 : fl. Jean Bononiensis, bachelier de Montpellier, auteur d'un Tractatus de regimine sanitatis, régime de santé dédié à un roi de Hongrie, probablement Charles Ier Robert.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1302_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1302_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1302 ou 1303 : Jean Dupin (mort en 1372), moine de l'abbaye de Vaucelles près Cambrai, théologien, orateur et poète ; également médecin, d'après La Croix du Maine, bien que les ouvrages qu'on lui attribue n'aient aucun rapport avec la médecine, et pas plus le Livre de Mandevie que les autres[9],[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1302 ou 1303 : Jean Dupin (mort en 1372), moine de l'abbaye de Vaucelles près Cambrai, théologien, orateur et poète ; également médecin, d'après La Croix du Maine, bien que les ouvrages qu'on lui attribue n'aient aucun rapport avec la médecine, et pas plus le Livre de Mandevie que les autres.
 </t>
         </is>
       </c>
